--- a/biology/Botanique/Opiliaceae/Opiliaceae.xlsx
+++ b/biology/Botanique/Opiliaceae/Opiliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Opiliacées regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz, elle comprend dix à trente espèces réparties en sept à dix genres. 
 Ce sont des arbres, des arbustes ou des lianes, certains parasitant les racines de leurs hôtes, des régions subtropicales à tropicales.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Opilia dont aucune origine n'a été donnée dans la description originale du botaniste écossais William Roxburgh (1759-1815) datant de 1802[1]. Le nom pourrait être apparenté à Opilio, « berger, pasteur ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Opilia dont aucune origine n'a été donnée dans la description originale du botaniste écossais William Roxburgh (1759-1815) datant de 1802. Le nom pourrait être apparenté à Opilio, « berger, pasteur ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Angiosperm Phylogeny Website (9 fév 2008) agrandit la famille en incluant quelques genres traditionnellement assignés à la famille des Santalacées.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (29 avr. 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (29 avr. 2010) :
 Agonandra (en)
 Cansjera (en)
 Champereia
@@ -587,7 +605,7 @@
 Pentarhopalopilia (en)
 Rhopalopilia (en)
 Urobotrya
-Selon NCBI  (29 avr. 2010)[3] :
+Selon NCBI  (29 avr. 2010) :
 Agonandra
 Cansjera
 Champereia
@@ -595,7 +613,7 @@
 Opilia
 Pentarhopalopilia
 Urobotrya
-Selon DELTA Angio           (29 avr. 2010)[4] :
+Selon DELTA Angio           (29 avr. 2010) :
 Agonandra
 Cansjera
 Champereia
@@ -633,9 +651,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 avr. 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 avr. 2010) :
 genre Agonandra
 Agonandra macrocarpa
 Agonandra racemosa
